--- a/data/output/FV2310_FV2304/UTILMD/55075.xlsx
+++ b/data/output/FV2310_FV2304/UTILMD/55075.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="426">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="426">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1427,6 +1427,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U286" totalsRowShown="0">
+  <autoFilter ref="A1:U286"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1716,7 +1746,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14661,5 +14694,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/UTILMD/55075.xlsx
+++ b/data/output/FV2310_FV2304/UTILMD/55075.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6681" uniqueCount="704">
   <si>
     <t>#</t>
   </si>
@@ -5650,44 +5650,42 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M66" s="5" t="s">
+      <c r="K66" s="2"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V66" s="5"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -5711,9 +5709,7 @@
         <v>340</v>
       </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>33</v>
       </c>
@@ -5761,9 +5757,7 @@
         <v>341</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>33</v>
       </c>
@@ -5817,9 +5811,7 @@
         <v>341</v>
       </c>
       <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="5" t="s">
         <v>33</v>
       </c>
@@ -5846,46 +5838,44 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L70" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="L70" s="4"/>
+      <c r="M70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="V70" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5911,9 +5901,7 @@
         <v>340</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>34</v>
       </c>
@@ -5961,9 +5949,7 @@
         <v>341</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>34</v>
       </c>
@@ -5990,48 +5976,46 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M73" s="5" t="s">
+      <c r="K73" s="2"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V73" s="5"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -6061,9 +6045,7 @@
         <v>341</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="5" t="s">
         <v>35</v>
       </c>
@@ -6117,9 +6099,7 @@
       <c r="K75" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L75" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>35</v>
       </c>
@@ -6146,46 +6126,44 @@
       </c>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="C76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K76" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="L76" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="L76" s="4"/>
+      <c r="M76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N76" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="N76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="V76" s="5" t="s">
+      <c r="V76" s="2" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6211,9 +6189,7 @@
         <v>340</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>36</v>
       </c>
@@ -6261,9 +6237,7 @@
         <v>341</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>36</v>
       </c>
@@ -6290,48 +6264,46 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="C79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N79" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O79" s="5" t="s">
+      <c r="N79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -6361,9 +6333,7 @@
         <v>341</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>37</v>
       </c>
@@ -6417,9 +6387,7 @@
       <c r="K81" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="L81" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>37</v>
       </c>
@@ -6446,46 +6414,44 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="C82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L82" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="N82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="V82" s="5" t="s">
+      <c r="V82" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6511,9 +6477,7 @@
         <v>340</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>38</v>
       </c>
@@ -6561,9 +6525,7 @@
         <v>341</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -6615,9 +6577,7 @@
         <v>341</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>38</v>
       </c>
@@ -6642,46 +6602,44 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="C86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="N86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="V86" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -6707,9 +6665,7 @@
         <v>340</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -6757,9 +6713,7 @@
         <v>341</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6813,9 +6767,7 @@
         <v>341</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>39</v>
       </c>
@@ -6863,9 +6815,7 @@
         <v>340</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>39</v>
       </c>
@@ -6911,9 +6861,7 @@
         <v>341</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>39</v>
       </c>
@@ -6938,44 +6886,42 @@
       <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="C92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M92" s="5" t="s">
+      <c r="K92" s="2"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N92" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="N92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6999,9 +6945,7 @@
         <v>340</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
@@ -7049,9 +6993,7 @@
         <v>341</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
@@ -7078,48 +7020,46 @@
       <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N95" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O95" s="5" t="s">
+      <c r="N95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V95" s="5"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -7149,9 +7089,7 @@
         <v>341</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>41</v>
       </c>
@@ -7205,9 +7143,7 @@
         <v>341</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>41</v>
       </c>
@@ -7261,9 +7197,7 @@
         <v>341</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>41</v>
       </c>
@@ -7317,9 +7251,7 @@
         <v>341</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>41</v>
       </c>
@@ -7373,9 +7305,7 @@
         <v>341</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>41</v>
       </c>
@@ -7402,44 +7332,42 @@
       <c r="V100" s="5"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5" t="s">
+      <c r="C101" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M101" s="5" t="s">
+      <c r="K101" s="2"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N101" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5" t="s">
+      <c r="N101" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V101" s="5"/>
+      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -7463,9 +7391,7 @@
         <v>340</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>42</v>
       </c>
@@ -7513,9 +7439,7 @@
         <v>341</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>42</v>
       </c>
@@ -7569,9 +7493,7 @@
         <v>341</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>42</v>
       </c>
@@ -7625,9 +7547,7 @@
         <v>341</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>42</v>
       </c>
@@ -7681,9 +7601,7 @@
         <v>341</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>42</v>
       </c>
@@ -7737,9 +7655,7 @@
         <v>341</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>42</v>
       </c>
@@ -7793,9 +7709,7 @@
         <v>341</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>42</v>
       </c>
@@ -7849,9 +7763,7 @@
         <v>341</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>42</v>
       </c>
@@ -7878,46 +7790,44 @@
       <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="C110" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K110" s="5" t="s">
+      <c r="K110" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="L110" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M110" s="5" t="s">
+      <c r="L110" s="4"/>
+      <c r="M110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N110" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="N110" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="V110" s="5" t="s">
+      <c r="V110" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7943,9 +7853,7 @@
         <v>340</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>43</v>
       </c>
@@ -7993,9 +7901,7 @@
         <v>341</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>43</v>
       </c>
@@ -8047,9 +7953,7 @@
         <v>341</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>43</v>
       </c>
@@ -8101,9 +8005,7 @@
         <v>341</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>43</v>
       </c>
@@ -8157,9 +8059,7 @@
         <v>341</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>43</v>
       </c>
@@ -8186,46 +8086,44 @@
       <c r="V115" s="5"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K116" s="5" t="s">
+      <c r="K116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="L116" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M116" s="5" t="s">
+      <c r="L116" s="4"/>
+      <c r="M116" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5" t="s">
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="V116" s="5" t="s">
+      <c r="V116" s="2" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8251,9 +8149,7 @@
         <v>340</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>44</v>
       </c>
@@ -8301,9 +8197,7 @@
         <v>341</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>44</v>
       </c>
@@ -8330,48 +8224,46 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8401,9 +8293,7 @@
         <v>341</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>35</v>
       </c>
@@ -8457,9 +8347,7 @@
       <c r="K121" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L121" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>35</v>
       </c>
@@ -8486,48 +8374,46 @@
       </c>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5" t="s">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M122" s="5" t="s">
+      <c r="K122" s="2"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N122" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O122" s="5" t="s">
+      <c r="O122" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5" t="s">
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V122" s="5"/>
+      <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -8557,9 +8443,7 @@
         <v>341</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>45</v>
       </c>
@@ -8613,9 +8497,7 @@
       <c r="K124" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="L124" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>45</v>
       </c>
@@ -8669,9 +8551,7 @@
         <v>341</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>45</v>
       </c>
@@ -8763,9 +8643,7 @@
         <v>340</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>46</v>
       </c>
@@ -8813,9 +8691,7 @@
         <v>341</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>46</v>
       </c>
@@ -8842,48 +8718,46 @@
       <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O129" s="5" t="s">
+      <c r="O129" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V129" s="5"/>
+      <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -8913,9 +8787,7 @@
         <v>341</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>47</v>
       </c>
@@ -8969,9 +8841,7 @@
       <c r="K131" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L131" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>47</v>
       </c>
@@ -8998,46 +8868,44 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K132" s="5" t="s">
+      <c r="K132" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M132" s="5" t="s">
+      <c r="L132" s="4"/>
+      <c r="M132" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="V132" s="5" t="s">
+      <c r="V132" s="2" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9063,9 +8931,7 @@
         <v>340</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>48</v>
       </c>
@@ -9113,9 +8979,7 @@
         <v>341</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>48</v>
       </c>
@@ -9169,9 +9033,7 @@
       <c r="K135" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="L135" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>48</v>
       </c>
@@ -9225,9 +9087,7 @@
         <v>341</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>48</v>
       </c>
@@ -9254,44 +9114,42 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="C137" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M137" s="5" t="s">
+      <c r="K137" s="2"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N137" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="N137" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
@@ -9315,9 +9173,7 @@
         <v>340</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>36</v>
       </c>
@@ -9365,9 +9221,7 @@
         <v>341</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>36</v>
       </c>
@@ -9394,48 +9248,46 @@
       <c r="V139" s="5"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D140" s="5" t="s">
+      <c r="C140" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M140" s="5" t="s">
+      <c r="K140" s="2"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N140" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O140" s="5" t="s">
+      <c r="N140" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O140" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5" t="s">
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V140" s="5"/>
+      <c r="V140" s="2"/>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="5" t="s">
@@ -9465,9 +9317,7 @@
         <v>341</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>37</v>
       </c>
@@ -9519,9 +9369,7 @@
         <v>341</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>37</v>
       </c>
@@ -9546,44 +9394,42 @@
       <c r="V142" s="5"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5" t="s">
+      <c r="C143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M143" s="5" t="s">
+      <c r="K143" s="2"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N143" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="U143" s="5" t="s">
+      <c r="N143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V143" s="5"/>
+      <c r="V143" s="2"/>
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="5" t="s">
@@ -9607,9 +9453,7 @@
         <v>340</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>38</v>
       </c>
@@ -9657,9 +9501,7 @@
         <v>341</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>38</v>
       </c>
@@ -9711,9 +9553,7 @@
         <v>341</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>38</v>
       </c>
@@ -9738,44 +9578,42 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="C147" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M147" s="5" t="s">
+      <c r="K147" s="2"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N147" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="N147" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V147" s="5"/>
+      <c r="V147" s="2"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -9799,9 +9637,7 @@
         <v>340</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>49</v>
       </c>
@@ -9849,9 +9685,7 @@
         <v>341</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>49</v>
       </c>
@@ -9905,9 +9739,7 @@
         <v>341</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>49</v>
       </c>
@@ -9961,9 +9793,7 @@
         <v>341</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>49</v>
       </c>
@@ -10055,9 +9885,7 @@
         <v>340</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>50</v>
       </c>
@@ -10105,9 +9933,7 @@
         <v>341</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>50</v>
       </c>
@@ -10134,48 +9960,46 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O155" s="5" t="s">
+      <c r="O155" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -10205,9 +10029,7 @@
         <v>341</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>51</v>
       </c>
@@ -10261,9 +10083,7 @@
       <c r="K157" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L157" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>51</v>
       </c>
@@ -10290,48 +10110,46 @@
       </c>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5" t="s">
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M158" s="5" t="s">
+      <c r="K158" s="2"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N158" s="5" t="s">
+      <c r="N158" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O158" s="5" t="s">
+      <c r="O158" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5" t="s">
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V158" s="5"/>
+      <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="5" t="s">
@@ -10361,9 +10179,7 @@
         <v>341</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>52</v>
       </c>
@@ -10417,9 +10233,7 @@
       <c r="K160" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L160" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>52</v>
       </c>
@@ -10473,9 +10287,7 @@
         <v>341</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>52</v>
       </c>
@@ -10567,9 +10379,7 @@
         <v>340</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>53</v>
       </c>
@@ -10617,9 +10427,7 @@
         <v>341</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>53</v>
       </c>
@@ -10646,48 +10454,46 @@
       <c r="V164" s="5"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5" t="s">
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M165" s="5" t="s">
+      <c r="K165" s="2"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="N165" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O165" s="5" t="s">
+      <c r="O165" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
-      <c r="U165" s="5" t="s">
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V165" s="5"/>
+      <c r="V165" s="2"/>
     </row>
     <row r="166" spans="1:22">
       <c r="A166" s="5" t="s">
@@ -10717,9 +10523,7 @@
         <v>341</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>54</v>
       </c>
@@ -10773,9 +10577,7 @@
       <c r="K167" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="L167" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>54</v>
       </c>
@@ -10802,50 +10604,48 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="K168" s="5" t="s">
+      <c r="K168" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="L168" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M168" s="5" t="s">
+      <c r="L168" s="4"/>
+      <c r="M168" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O168" s="5" t="s">
+      <c r="O168" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="V168" s="5" t="s">
+      <c r="V168" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10877,9 +10677,7 @@
         <v>341</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>55</v>
       </c>
@@ -10931,9 +10729,7 @@
         <v>341</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>55</v>
       </c>
@@ -10958,44 +10754,42 @@
       <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="C171" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M171" s="5" t="s">
+      <c r="K171" s="2"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N171" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="N171" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -11019,9 +10813,7 @@
         <v>340</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>56</v>
       </c>
@@ -11069,9 +10861,7 @@
         <v>341</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>56</v>
       </c>
@@ -11119,9 +10909,7 @@
         <v>340</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>56</v>
       </c>
@@ -11169,9 +10957,7 @@
         <v>341</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>56</v>
       </c>
@@ -11225,9 +11011,7 @@
         <v>341</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>56</v>
       </c>
@@ -11281,9 +11065,7 @@
         <v>341</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>56</v>
       </c>
@@ -11337,9 +11119,7 @@
         <v>341</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>56</v>
       </c>
@@ -11393,9 +11173,7 @@
         <v>341</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>56</v>
       </c>
@@ -11449,9 +11227,7 @@
         <v>341</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>56</v>
       </c>
@@ -11505,9 +11281,7 @@
         <v>341</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>56</v>
       </c>
@@ -11534,48 +11308,46 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="C182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="K182" s="2"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N182" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O182" s="5" t="s">
+      <c r="N182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O182" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V182" s="5"/>
+      <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="5" t="s">
@@ -11605,9 +11377,7 @@
         <v>341</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>57</v>
       </c>
@@ -11659,9 +11429,7 @@
         <v>341</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>57</v>
       </c>
@@ -11686,50 +11454,48 @@
       <c r="V184" s="5"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D185" s="5" t="s">
+      <c r="C185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5" t="s">
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K185" s="5" t="s">
+      <c r="K185" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L185" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M185" s="5" t="s">
+      <c r="L185" s="4"/>
+      <c r="M185" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N185" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O185" s="5" t="s">
+      <c r="N185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O185" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P185" s="5"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
-      <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
-      <c r="U185" s="5" t="s">
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="V185" s="5" t="s">
+      <c r="V185" s="2" t="s">
         <v>398</v>
       </c>
     </row>
@@ -11761,9 +11527,7 @@
         <v>341</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>58</v>
       </c>
@@ -11817,9 +11581,7 @@
         <v>341</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>58</v>
       </c>
@@ -11873,9 +11635,7 @@
         <v>341</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>58</v>
       </c>
@@ -11902,48 +11662,46 @@
       <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D189" s="5" t="s">
+      <c r="C189" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="K189" s="2"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N189" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O189" s="5" t="s">
+      <c r="N189" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O189" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -11973,9 +11731,7 @@
         <v>341</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>59</v>
       </c>
@@ -12029,9 +11785,7 @@
         <v>341</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>59</v>
       </c>
@@ -12058,46 +11812,44 @@
       <c r="V191" s="5"/>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5" t="s">
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K192" s="5" t="s">
+      <c r="K192" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="L192" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M192" s="5" t="s">
+      <c r="L192" s="4"/>
+      <c r="M192" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="N192" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O192" s="5"/>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5" t="s">
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="V192" s="5" t="s">
+      <c r="V192" s="2" t="s">
         <v>399</v>
       </c>
     </row>
@@ -12123,9 +11875,7 @@
         <v>340</v>
       </c>
       <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>60</v>
       </c>
@@ -12173,9 +11923,7 @@
         <v>341</v>
       </c>
       <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>60</v>
       </c>
@@ -12387,9 +12135,7 @@
         <v>341</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>61</v>
       </c>
@@ -12414,48 +12160,46 @@
       <c r="V198" s="5"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5" t="s">
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M199" s="5" t="s">
+      <c r="K199" s="2"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N199" s="5" t="s">
+      <c r="N199" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O199" s="5" t="s">
+      <c r="O199" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5" t="s">
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V199" s="5"/>
+      <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="5" t="s">
@@ -12485,9 +12229,7 @@
         <v>341</v>
       </c>
       <c r="K200" s="5"/>
-      <c r="L200" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L200" s="4"/>
       <c r="M200" s="5" t="s">
         <v>54</v>
       </c>
@@ -12541,9 +12283,7 @@
       <c r="K201" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="L201" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L201" s="4"/>
       <c r="M201" s="5" t="s">
         <v>54</v>
       </c>
@@ -12570,50 +12310,48 @@
       </c>
     </row>
     <row r="202" spans="1:22">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5" t="s">
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K202" s="5" t="s">
+      <c r="K202" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L202" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M202" s="5" t="s">
+      <c r="L202" s="4"/>
+      <c r="M202" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N202" s="5" t="s">
+      <c r="N202" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O202" s="5" t="s">
+      <c r="O202" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="5"/>
-      <c r="R202" s="5"/>
-      <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
-      <c r="U202" s="5" t="s">
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="V202" s="5" t="s">
+      <c r="V202" s="2" t="s">
         <v>400</v>
       </c>
     </row>
@@ -12645,9 +12383,7 @@
         <v>341</v>
       </c>
       <c r="K203" s="5"/>
-      <c r="L203" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L203" s="4"/>
       <c r="M203" s="5" t="s">
         <v>62</v>
       </c>
@@ -12699,9 +12435,7 @@
         <v>341</v>
       </c>
       <c r="K204" s="5"/>
-      <c r="L204" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L204" s="4"/>
       <c r="M204" s="5" t="s">
         <v>62</v>
       </c>
@@ -12726,48 +12460,46 @@
       <c r="V204" s="5"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5" t="s">
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K205" s="5"/>
-      <c r="L205" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M205" s="5" t="s">
+      <c r="K205" s="2"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N205" s="5" t="s">
+      <c r="N205" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O205" s="5" t="s">
+      <c r="O205" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="5"/>
-      <c r="R205" s="5"/>
-      <c r="S205" s="5"/>
-      <c r="T205" s="5"/>
-      <c r="U205" s="5" t="s">
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V205" s="5"/>
+      <c r="V205" s="2"/>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="5" t="s">
@@ -12797,9 +12529,7 @@
         <v>341</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>63</v>
       </c>
@@ -12853,9 +12583,7 @@
       <c r="K207" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="L207" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L207" s="4"/>
       <c r="M207" s="5" t="s">
         <v>63</v>
       </c>
@@ -12909,9 +12637,7 @@
         <v>341</v>
       </c>
       <c r="K208" s="5"/>
-      <c r="L208" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L208" s="4"/>
       <c r="M208" s="5" t="s">
         <v>63</v>
       </c>
@@ -12938,46 +12664,44 @@
       <c r="V208" s="5"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5" t="s">
+      <c r="C209" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K209" s="5" t="s">
+      <c r="K209" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="L209" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M209" s="5" t="s">
+      <c r="L209" s="4"/>
+      <c r="M209" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N209" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
-      <c r="U209" s="5" t="s">
+      <c r="N209" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="V209" s="5" t="s">
+      <c r="V209" s="2" t="s">
         <v>402</v>
       </c>
     </row>
@@ -13003,9 +12727,7 @@
         <v>340</v>
       </c>
       <c r="K210" s="5"/>
-      <c r="L210" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L210" s="4"/>
       <c r="M210" s="5" t="s">
         <v>64</v>
       </c>
@@ -13053,9 +12775,7 @@
         <v>341</v>
       </c>
       <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L211" s="4"/>
       <c r="M211" s="5" t="s">
         <v>64</v>
       </c>
@@ -13103,9 +12823,7 @@
         <v>340</v>
       </c>
       <c r="K212" s="5"/>
-      <c r="L212" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L212" s="4"/>
       <c r="M212" s="5" t="s">
         <v>64</v>
       </c>
@@ -13153,9 +12871,7 @@
         <v>341</v>
       </c>
       <c r="K213" s="5"/>
-      <c r="L213" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L213" s="4"/>
       <c r="M213" s="5" t="s">
         <v>64</v>
       </c>
@@ -13209,9 +12925,7 @@
         <v>341</v>
       </c>
       <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L214" s="4"/>
       <c r="M214" s="5" t="s">
         <v>64</v>
       </c>
@@ -13265,9 +12979,7 @@
         <v>341</v>
       </c>
       <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>64</v>
       </c>
@@ -13321,9 +13033,7 @@
         <v>341</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L216" s="4"/>
       <c r="M216" s="5" t="s">
         <v>64</v>
       </c>
@@ -13350,46 +13060,44 @@
       <c r="V216" s="5"/>
     </row>
     <row r="217" spans="1:22">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C217" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5" t="s">
+      <c r="C217" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K217" s="5" t="s">
+      <c r="K217" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="L217" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M217" s="5" t="s">
+      <c r="L217" s="4"/>
+      <c r="M217" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N217" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O217" s="5"/>
-      <c r="P217" s="5"/>
-      <c r="Q217" s="5"/>
-      <c r="R217" s="5"/>
-      <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
-      <c r="U217" s="5" t="s">
+      <c r="N217" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="V217" s="5" t="s">
+      <c r="V217" s="2" t="s">
         <v>403</v>
       </c>
     </row>
@@ -13415,9 +13123,7 @@
         <v>340</v>
       </c>
       <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L218" s="4"/>
       <c r="M218" s="5" t="s">
         <v>65</v>
       </c>
@@ -13465,9 +13171,7 @@
         <v>341</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L219" s="4"/>
       <c r="M219" s="5" t="s">
         <v>65</v>
       </c>
@@ -13521,9 +13225,7 @@
         <v>341</v>
       </c>
       <c r="K220" s="5"/>
-      <c r="L220" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L220" s="4"/>
       <c r="M220" s="5" t="s">
         <v>65</v>
       </c>
@@ -13571,9 +13273,7 @@
         <v>340</v>
       </c>
       <c r="K221" s="5"/>
-      <c r="L221" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L221" s="4"/>
       <c r="M221" s="5" t="s">
         <v>65</v>
       </c>
@@ -13619,9 +13319,7 @@
         <v>341</v>
       </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>65</v>
       </c>
@@ -13671,9 +13369,7 @@
         <v>341</v>
       </c>
       <c r="K223" s="5"/>
-      <c r="L223" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>65</v>
       </c>
@@ -13698,46 +13394,44 @@
       <c r="V223" s="5"/>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
-      <c r="J224" s="5" t="s">
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K224" s="5" t="s">
+      <c r="K224" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="L224" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M224" s="5" t="s">
+      <c r="L224" s="4"/>
+      <c r="M224" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N224" s="5" t="s">
+      <c r="N224" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O224" s="5"/>
-      <c r="P224" s="5"/>
-      <c r="Q224" s="5"/>
-      <c r="R224" s="5"/>
-      <c r="S224" s="5"/>
-      <c r="T224" s="5"/>
-      <c r="U224" s="5" t="s">
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="V224" s="5" t="s">
+      <c r="V224" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -13763,9 +13457,7 @@
         <v>340</v>
       </c>
       <c r="K225" s="5"/>
-      <c r="L225" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L225" s="4"/>
       <c r="M225" s="5" t="s">
         <v>66</v>
       </c>
@@ -13813,9 +13505,7 @@
         <v>341</v>
       </c>
       <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>66</v>
       </c>
@@ -13842,48 +13532,46 @@
       <c r="V226" s="5"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C227" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="D227" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5" t="s">
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K227" s="5"/>
-      <c r="L227" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M227" s="5" t="s">
+      <c r="K227" s="2"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N227" s="5" t="s">
+      <c r="N227" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O227" s="5" t="s">
+      <c r="O227" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
-      <c r="U227" s="5" t="s">
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V227" s="5"/>
+      <c r="V227" s="2"/>
     </row>
     <row r="228" spans="1:22">
       <c r="A228" s="5" t="s">
@@ -13913,9 +13601,7 @@
         <v>341</v>
       </c>
       <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L228" s="4"/>
       <c r="M228" s="5" t="s">
         <v>61</v>
       </c>
@@ -13967,9 +13653,7 @@
         <v>341</v>
       </c>
       <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L229" s="4"/>
       <c r="M229" s="5" t="s">
         <v>61</v>
       </c>
@@ -13994,44 +13678,42 @@
       <c r="V229" s="5"/>
     </row>
     <row r="230" spans="1:22">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="5" t="s">
+      <c r="C230" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K230" s="5"/>
-      <c r="L230" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M230" s="5" t="s">
+      <c r="K230" s="2"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N230" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O230" s="5"/>
-      <c r="P230" s="5"/>
-      <c r="Q230" s="5"/>
-      <c r="R230" s="5"/>
-      <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
-      <c r="U230" s="5" t="s">
+      <c r="N230" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V230" s="5"/>
+      <c r="V230" s="2"/>
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="5" t="s">
@@ -14055,9 +13737,7 @@
         <v>340</v>
       </c>
       <c r="K231" s="5"/>
-      <c r="L231" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L231" s="4"/>
       <c r="M231" s="5" t="s">
         <v>67</v>
       </c>
@@ -14105,9 +13785,7 @@
         <v>341</v>
       </c>
       <c r="K232" s="5"/>
-      <c r="L232" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L232" s="4"/>
       <c r="M232" s="5" t="s">
         <v>67</v>
       </c>
@@ -14134,50 +13812,48 @@
       <c r="V232" s="5"/>
     </row>
     <row r="233" spans="1:22">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D233" s="5" t="s">
+      <c r="C233" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="5" t="s">
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K233" s="5" t="s">
+      <c r="K233" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="L233" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M233" s="5" t="s">
+      <c r="L233" s="4"/>
+      <c r="M233" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N233" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O233" s="5" t="s">
+      <c r="N233" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O233" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P233" s="5"/>
-      <c r="Q233" s="5"/>
-      <c r="R233" s="5"/>
-      <c r="S233" s="5"/>
-      <c r="T233" s="5"/>
-      <c r="U233" s="5" t="s">
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="V233" s="5" t="s">
+      <c r="V233" s="2" t="s">
         <v>405</v>
       </c>
     </row>
@@ -14209,9 +13885,7 @@
         <v>341</v>
       </c>
       <c r="K234" s="5"/>
-      <c r="L234" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L234" s="4"/>
       <c r="M234" s="5" t="s">
         <v>57</v>
       </c>
@@ -14263,9 +13937,7 @@
         <v>341</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>57</v>
       </c>
@@ -14290,48 +13962,46 @@
       <c r="V235" s="5"/>
     </row>
     <row r="236" spans="1:22">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C236" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D236" s="5" t="s">
+      <c r="C236" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5" t="s">
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K236" s="5"/>
-      <c r="L236" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M236" s="5" t="s">
+      <c r="K236" s="2"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N236" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O236" s="5" t="s">
+      <c r="N236" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O236" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
-      <c r="U236" s="5" t="s">
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V236" s="5"/>
+      <c r="V236" s="2"/>
     </row>
     <row r="237" spans="1:22">
       <c r="A237" s="5" t="s">
@@ -14361,9 +14031,7 @@
         <v>341</v>
       </c>
       <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L237" s="4"/>
       <c r="M237" s="5" t="s">
         <v>68</v>
       </c>
@@ -14417,9 +14085,7 @@
         <v>341</v>
       </c>
       <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L238" s="4"/>
       <c r="M238" s="5" t="s">
         <v>68</v>
       </c>
@@ -14473,9 +14139,7 @@
         <v>341</v>
       </c>
       <c r="K239" s="5"/>
-      <c r="L239" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L239" s="4"/>
       <c r="M239" s="5" t="s">
         <v>68</v>
       </c>
@@ -14529,9 +14193,7 @@
         <v>341</v>
       </c>
       <c r="K240" s="5"/>
-      <c r="L240" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L240" s="4"/>
       <c r="M240" s="5" t="s">
         <v>68</v>
       </c>
@@ -14585,9 +14247,7 @@
       <c r="K241" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L241" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L241" s="4"/>
       <c r="M241" s="5" t="s">
         <v>68</v>
       </c>
@@ -14614,46 +14274,44 @@
       </c>
     </row>
     <row r="242" spans="1:22">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="C242" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-      <c r="J242" s="5" t="s">
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K242" s="5" t="s">
+      <c r="K242" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="L242" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M242" s="5" t="s">
+      <c r="L242" s="4"/>
+      <c r="M242" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N242" s="5" t="s">
+      <c r="N242" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O242" s="5"/>
-      <c r="P242" s="5"/>
-      <c r="Q242" s="5"/>
-      <c r="R242" s="5"/>
-      <c r="S242" s="5"/>
-      <c r="T242" s="5"/>
-      <c r="U242" s="5" t="s">
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="V242" s="5" t="s">
+      <c r="V242" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -14679,9 +14337,7 @@
         <v>340</v>
       </c>
       <c r="K243" s="5"/>
-      <c r="L243" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L243" s="4"/>
       <c r="M243" s="5" t="s">
         <v>69</v>
       </c>
@@ -14729,9 +14385,7 @@
         <v>341</v>
       </c>
       <c r="K244" s="5"/>
-      <c r="L244" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L244" s="4"/>
       <c r="M244" s="5" t="s">
         <v>69</v>
       </c>
@@ -14777,9 +14431,7 @@
         <v>340</v>
       </c>
       <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L245" s="4"/>
       <c r="M245" s="5" t="s">
         <v>69</v>
       </c>
@@ -14819,9 +14471,7 @@
         <v>340</v>
       </c>
       <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L246" s="4"/>
       <c r="M246" s="5" t="s">
         <v>69</v>
       </c>
@@ -14869,9 +14519,7 @@
         <v>341</v>
       </c>
       <c r="K247" s="5"/>
-      <c r="L247" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L247" s="4"/>
       <c r="M247" s="5" t="s">
         <v>69</v>
       </c>
@@ -14898,48 +14546,46 @@
       <c r="V247" s="5"/>
     </row>
     <row r="248" spans="1:22">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C248" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D248" s="5" t="s">
+      <c r="C248" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="5" t="s">
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K248" s="5"/>
-      <c r="L248" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M248" s="5" t="s">
+      <c r="K248" s="2"/>
+      <c r="L248" s="4"/>
+      <c r="M248" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N248" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O248" s="5" t="s">
+      <c r="N248" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O248" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P248" s="5"/>
-      <c r="Q248" s="5"/>
-      <c r="R248" s="5"/>
-      <c r="S248" s="5"/>
-      <c r="T248" s="5"/>
-      <c r="U248" s="5" t="s">
+      <c r="P248" s="2"/>
+      <c r="Q248" s="2"/>
+      <c r="R248" s="2"/>
+      <c r="S248" s="2"/>
+      <c r="T248" s="2"/>
+      <c r="U248" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V248" s="5"/>
+      <c r="V248" s="2"/>
     </row>
     <row r="249" spans="1:22">
       <c r="A249" s="5" t="s">
@@ -14969,9 +14615,7 @@
         <v>341</v>
       </c>
       <c r="K249" s="5"/>
-      <c r="L249" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L249" s="4"/>
       <c r="M249" s="5" t="s">
         <v>57</v>
       </c>
@@ -15025,9 +14669,7 @@
       <c r="K250" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L250" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L250" s="4"/>
       <c r="M250" s="5" t="s">
         <v>57</v>
       </c>
@@ -15054,46 +14696,44 @@
       </c>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C251" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
-      <c r="I251" s="5"/>
-      <c r="J251" s="5" t="s">
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K251" s="5" t="s">
+      <c r="K251" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="L251" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M251" s="5" t="s">
+      <c r="L251" s="4"/>
+      <c r="M251" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N251" s="5" t="s">
+      <c r="N251" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O251" s="5"/>
-      <c r="P251" s="5"/>
-      <c r="Q251" s="5"/>
-      <c r="R251" s="5"/>
-      <c r="S251" s="5"/>
-      <c r="T251" s="5"/>
-      <c r="U251" s="5" t="s">
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="2"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="2"/>
+      <c r="T251" s="2"/>
+      <c r="U251" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="V251" s="5" t="s">
+      <c r="V251" s="2" t="s">
         <v>408</v>
       </c>
     </row>
@@ -15119,9 +14759,7 @@
         <v>340</v>
       </c>
       <c r="K252" s="5"/>
-      <c r="L252" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L252" s="4"/>
       <c r="M252" s="5" t="s">
         <v>70</v>
       </c>
@@ -15169,9 +14807,7 @@
         <v>341</v>
       </c>
       <c r="K253" s="5"/>
-      <c r="L253" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L253" s="4"/>
       <c r="M253" s="5" t="s">
         <v>70</v>
       </c>
@@ -15198,48 +14834,46 @@
       <c r="V253" s="5"/>
     </row>
     <row r="254" spans="1:22">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="C254" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="D254" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5" t="s">
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K254" s="5"/>
-      <c r="L254" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M254" s="5" t="s">
+      <c r="K254" s="2"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N254" s="5" t="s">
+      <c r="N254" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O254" s="5" t="s">
+      <c r="O254" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5" t="s">
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V254" s="5"/>
+      <c r="V254" s="2"/>
     </row>
     <row r="255" spans="1:22">
       <c r="A255" s="5" t="s">
@@ -15269,9 +14903,7 @@
         <v>341</v>
       </c>
       <c r="K255" s="5"/>
-      <c r="L255" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L255" s="4"/>
       <c r="M255" s="5" t="s">
         <v>55</v>
       </c>
@@ -15323,9 +14955,7 @@
         <v>341</v>
       </c>
       <c r="K256" s="5"/>
-      <c r="L256" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L256" s="4"/>
       <c r="M256" s="5" t="s">
         <v>55</v>
       </c>
@@ -15350,48 +14980,46 @@
       <c r="V256" s="5"/>
     </row>
     <row r="257" spans="1:22">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C257" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="5"/>
-      <c r="I257" s="5"/>
-      <c r="J257" s="5" t="s">
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K257" s="5"/>
-      <c r="L257" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M257" s="5" t="s">
+      <c r="K257" s="2"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N257" s="5" t="s">
+      <c r="N257" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O257" s="5" t="s">
+      <c r="O257" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P257" s="5"/>
-      <c r="Q257" s="5"/>
-      <c r="R257" s="5"/>
-      <c r="S257" s="5"/>
-      <c r="T257" s="5"/>
-      <c r="U257" s="5" t="s">
+      <c r="P257" s="2"/>
+      <c r="Q257" s="2"/>
+      <c r="R257" s="2"/>
+      <c r="S257" s="2"/>
+      <c r="T257" s="2"/>
+      <c r="U257" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V257" s="5"/>
+      <c r="V257" s="2"/>
     </row>
     <row r="258" spans="1:22">
       <c r="A258" s="5" t="s">
@@ -15421,9 +15049,7 @@
         <v>341</v>
       </c>
       <c r="K258" s="5"/>
-      <c r="L258" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L258" s="4"/>
       <c r="M258" s="5" t="s">
         <v>35</v>
       </c>
@@ -15477,9 +15103,7 @@
       <c r="K259" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L259" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L259" s="4"/>
       <c r="M259" s="5" t="s">
         <v>35</v>
       </c>
@@ -15506,44 +15130,42 @@
       </c>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5"/>
-      <c r="H260" s="5"/>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5" t="s">
+      <c r="C260" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K260" s="5"/>
-      <c r="L260" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M260" s="5" t="s">
+      <c r="K260" s="2"/>
+      <c r="L260" s="4"/>
+      <c r="M260" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N260" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O260" s="5"/>
-      <c r="P260" s="5"/>
-      <c r="Q260" s="5"/>
-      <c r="R260" s="5"/>
-      <c r="S260" s="5"/>
-      <c r="T260" s="5"/>
-      <c r="U260" s="5" t="s">
+      <c r="N260" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O260" s="2"/>
+      <c r="P260" s="2"/>
+      <c r="Q260" s="2"/>
+      <c r="R260" s="2"/>
+      <c r="S260" s="2"/>
+      <c r="T260" s="2"/>
+      <c r="U260" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V260" s="5"/>
+      <c r="V260" s="2"/>
     </row>
     <row r="261" spans="1:22">
       <c r="A261" s="5" t="s">
@@ -15567,9 +15189,7 @@
         <v>340</v>
       </c>
       <c r="K261" s="5"/>
-      <c r="L261" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L261" s="4"/>
       <c r="M261" s="5" t="s">
         <v>71</v>
       </c>
@@ -15617,9 +15237,7 @@
         <v>341</v>
       </c>
       <c r="K262" s="5"/>
-      <c r="L262" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L262" s="4"/>
       <c r="M262" s="5" t="s">
         <v>71</v>
       </c>
@@ -15646,48 +15264,46 @@
       <c r="V262" s="5"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D263" s="5" t="s">
+      <c r="C263" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5" t="s">
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K263" s="5"/>
-      <c r="L263" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M263" s="5" t="s">
+      <c r="K263" s="2"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N263" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O263" s="5" t="s">
+      <c r="N263" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O263" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5" t="s">
+      <c r="P263" s="2"/>
+      <c r="Q263" s="2"/>
+      <c r="R263" s="2"/>
+      <c r="S263" s="2"/>
+      <c r="T263" s="2"/>
+      <c r="U263" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V263" s="5"/>
+      <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="5" t="s">
@@ -15717,9 +15333,7 @@
         <v>341</v>
       </c>
       <c r="K264" s="5"/>
-      <c r="L264" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L264" s="4"/>
       <c r="M264" s="5" t="s">
         <v>57</v>
       </c>
@@ -15773,9 +15387,7 @@
       <c r="K265" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L265" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L265" s="4"/>
       <c r="M265" s="5" t="s">
         <v>57</v>
       </c>
@@ -15802,46 +15414,44 @@
       </c>
     </row>
     <row r="266" spans="1:22">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C266" s="5" t="s">
+      <c r="C266" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="5"/>
-      <c r="H266" s="5"/>
-      <c r="I266" s="5"/>
-      <c r="J266" s="5" t="s">
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="K266" s="5" t="s">
+      <c r="K266" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="L266" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M266" s="5" t="s">
+      <c r="L266" s="4"/>
+      <c r="M266" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N266" s="5" t="s">
+      <c r="N266" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O266" s="5"/>
-      <c r="P266" s="5"/>
-      <c r="Q266" s="5"/>
-      <c r="R266" s="5"/>
-      <c r="S266" s="5"/>
-      <c r="T266" s="5"/>
-      <c r="U266" s="5" t="s">
+      <c r="O266" s="2"/>
+      <c r="P266" s="2"/>
+      <c r="Q266" s="2"/>
+      <c r="R266" s="2"/>
+      <c r="S266" s="2"/>
+      <c r="T266" s="2"/>
+      <c r="U266" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V266" s="5" t="s">
+      <c r="V266" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -15867,9 +15477,7 @@
         <v>340</v>
       </c>
       <c r="K267" s="5"/>
-      <c r="L267" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L267" s="4"/>
       <c r="M267" s="5" t="s">
         <v>72</v>
       </c>
@@ -15917,9 +15525,7 @@
         <v>341</v>
       </c>
       <c r="K268" s="5"/>
-      <c r="L268" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L268" s="4"/>
       <c r="M268" s="5" t="s">
         <v>72</v>
       </c>
@@ -15971,9 +15577,7 @@
         <v>341</v>
       </c>
       <c r="K269" s="5"/>
-      <c r="L269" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L269" s="4"/>
       <c r="M269" s="5" t="s">
         <v>72</v>
       </c>
@@ -16025,9 +15629,7 @@
         <v>341</v>
       </c>
       <c r="K270" s="5"/>
-      <c r="L270" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L270" s="4"/>
       <c r="M270" s="5" t="s">
         <v>72</v>
       </c>
@@ -16081,9 +15683,7 @@
         <v>341</v>
       </c>
       <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L271" s="4"/>
       <c r="M271" s="5" t="s">
         <v>72</v>
       </c>
@@ -16110,48 +15710,46 @@
       <c r="V271" s="5"/>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C272" s="5" t="s">
+      <c r="C272" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D272" s="5" t="s">
+      <c r="D272" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
-      <c r="G272" s="5"/>
-      <c r="H272" s="5"/>
-      <c r="I272" s="5"/>
-      <c r="J272" s="5" t="s">
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K272" s="5"/>
-      <c r="L272" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M272" s="5" t="s">
+      <c r="K272" s="2"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N272" s="5" t="s">
+      <c r="N272" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O272" s="5" t="s">
+      <c r="O272" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P272" s="5"/>
-      <c r="Q272" s="5"/>
-      <c r="R272" s="5"/>
-      <c r="S272" s="5"/>
-      <c r="T272" s="5"/>
-      <c r="U272" s="5" t="s">
+      <c r="P272" s="2"/>
+      <c r="Q272" s="2"/>
+      <c r="R272" s="2"/>
+      <c r="S272" s="2"/>
+      <c r="T272" s="2"/>
+      <c r="U272" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V272" s="5"/>
+      <c r="V272" s="2"/>
     </row>
     <row r="273" spans="1:22">
       <c r="A273" s="5" t="s">
@@ -16181,9 +15779,7 @@
         <v>341</v>
       </c>
       <c r="K273" s="5"/>
-      <c r="L273" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L273" s="4"/>
       <c r="M273" s="5" t="s">
         <v>73</v>
       </c>
@@ -16237,9 +15833,7 @@
         <v>341</v>
       </c>
       <c r="K274" s="5"/>
-      <c r="L274" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L274" s="4"/>
       <c r="M274" s="5" t="s">
         <v>73</v>
       </c>
@@ -16293,9 +15887,7 @@
       <c r="K275" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L275" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L275" s="4"/>
       <c r="M275" s="5" t="s">
         <v>73</v>
       </c>
@@ -16322,46 +15914,44 @@
       </c>
     </row>
     <row r="276" spans="1:22">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C276" s="5" t="s">
+      <c r="C276" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="5"/>
-      <c r="I276" s="5"/>
-      <c r="J276" s="5" t="s">
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="K276" s="5" t="s">
+      <c r="K276" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L276" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M276" s="5" t="s">
+      <c r="L276" s="4"/>
+      <c r="M276" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N276" s="5" t="s">
+      <c r="N276" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O276" s="5"/>
-      <c r="P276" s="5"/>
-      <c r="Q276" s="5"/>
-      <c r="R276" s="5"/>
-      <c r="S276" s="5"/>
-      <c r="T276" s="5"/>
-      <c r="U276" s="5" t="s">
+      <c r="O276" s="2"/>
+      <c r="P276" s="2"/>
+      <c r="Q276" s="2"/>
+      <c r="R276" s="2"/>
+      <c r="S276" s="2"/>
+      <c r="T276" s="2"/>
+      <c r="U276" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="V276" s="5" t="s">
+      <c r="V276" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -16387,9 +15977,7 @@
         <v>340</v>
       </c>
       <c r="K277" s="5"/>
-      <c r="L277" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L277" s="4"/>
       <c r="M277" s="5" t="s">
         <v>74</v>
       </c>
@@ -16437,9 +16025,7 @@
         <v>341</v>
       </c>
       <c r="K278" s="5"/>
-      <c r="L278" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L278" s="4"/>
       <c r="M278" s="5" t="s">
         <v>74</v>
       </c>
@@ -16491,9 +16077,7 @@
         <v>377</v>
       </c>
       <c r="K279" s="5"/>
-      <c r="L279" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L279" s="4"/>
       <c r="M279" s="5" t="s">
         <v>74</v>
       </c>
@@ -16545,9 +16129,7 @@
       <c r="K280" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L280" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L280" s="4"/>
       <c r="M280" s="5" t="s">
         <v>74</v>
       </c>
@@ -16599,9 +16181,7 @@
         <v>341</v>
       </c>
       <c r="K281" s="5"/>
-      <c r="L281" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L281" s="4"/>
       <c r="M281" s="5" t="s">
         <v>74</v>
       </c>
@@ -16651,9 +16231,7 @@
         <v>341</v>
       </c>
       <c r="K282" s="5"/>
-      <c r="L282" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L282" s="4"/>
       <c r="M282" s="5" t="s">
         <v>74</v>
       </c>
@@ -16703,9 +16281,7 @@
         <v>341</v>
       </c>
       <c r="K283" s="5"/>
-      <c r="L283" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L283" s="4"/>
       <c r="M283" s="5" t="s">
         <v>74</v>
       </c>
@@ -16730,44 +16306,42 @@
       <c r="V283" s="5"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C284" s="5"/>
-      <c r="D284" s="5" t="s">
+      <c r="C284" s="2"/>
+      <c r="D284" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E284" s="5"/>
-      <c r="F284" s="5"/>
-      <c r="G284" s="5"/>
-      <c r="H284" s="5"/>
-      <c r="I284" s="5"/>
-      <c r="J284" s="5" t="s">
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K284" s="5"/>
-      <c r="L284" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M284" s="5" t="s">
+      <c r="K284" s="2"/>
+      <c r="L284" s="4"/>
+      <c r="M284" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N284" s="5"/>
-      <c r="O284" s="5" t="s">
+      <c r="N284" s="2"/>
+      <c r="O284" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P284" s="5"/>
-      <c r="Q284" s="5"/>
-      <c r="R284" s="5"/>
-      <c r="S284" s="5"/>
-      <c r="T284" s="5"/>
-      <c r="U284" s="5" t="s">
+      <c r="P284" s="2"/>
+      <c r="Q284" s="2"/>
+      <c r="R284" s="2"/>
+      <c r="S284" s="2"/>
+      <c r="T284" s="2"/>
+      <c r="U284" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="V284" s="5"/>
+      <c r="V284" s="2"/>
     </row>
     <row r="285" spans="1:22">
       <c r="A285" s="5" t="s">
@@ -16793,9 +16367,7 @@
         <v>341</v>
       </c>
       <c r="K285" s="5"/>
-      <c r="L285" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L285" s="4"/>
       <c r="M285" s="5" t="s">
         <v>75</v>
       </c>
@@ -16841,9 +16413,7 @@
         <v>341</v>
       </c>
       <c r="K286" s="5"/>
-      <c r="L286" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="L286" s="4"/>
       <c r="M286" s="5" t="s">
         <v>75</v>
       </c>

--- a/data/output/FV2310_FV2304/UTILMD/55075.xlsx
+++ b/data/output/FV2310_FV2304/UTILMD/55075.xlsx
@@ -2245,7 +2245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2268,6 +2268,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2276,6 +2279,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2716,7 +2722,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3052,7 +3058,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3186,7 +3192,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3374,7 +3380,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3666,7 +3672,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3852,7 +3858,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4212,7 +4218,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4454,7 +4460,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4640,7 +4646,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4842,7 +4848,7 @@
         <v>381</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5032,22 +5038,22 @@
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8" t="s">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="10" t="s">
         <v>413</v>
       </c>
       <c r="M50" s="5"/>
@@ -5065,25 +5071,25 @@
       <c r="A51" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>413</v>
       </c>
       <c r="M51" s="5"/>
@@ -5101,31 +5107,31 @@
       <c r="A52" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>413</v>
       </c>
       <c r="M52" s="5"/>
@@ -5143,31 +5149,31 @@
       <c r="A53" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L53" s="10" t="s">
         <v>413</v>
       </c>
       <c r="M53" s="5"/>
@@ -5195,25 +5201,25 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11" t="s">
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="V54" s="11" t="s">
+      <c r="V54" s="13" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5231,27 +5237,27 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11" t="s">
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="V55" s="11"/>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -5267,33 +5273,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -5309,31 +5315,31 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="U57" s="11" t="s">
+      <c r="U57" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="V57" s="11" t="s">
+      <c r="V57" s="13" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5351,25 +5357,25 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11" t="s">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="V58" s="11" t="s">
+      <c r="V58" s="13" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5387,27 +5393,27 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11" t="s">
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="V59" s="11"/>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -5423,33 +5429,33 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11" t="s">
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -5465,31 +5471,31 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="U61" s="11" t="s">
+      <c r="U61" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="V61" s="11" t="s">
+      <c r="V61" s="13" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5507,25 +5513,25 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11" t="s">
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="V62" s="11" t="s">
+      <c r="V62" s="13" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5543,27 +5549,27 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11" t="s">
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="V63" s="11"/>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -5579,33 +5585,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -5621,31 +5627,31 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="U65" s="11" t="s">
+      <c r="U65" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="V65" s="11" t="s">
+      <c r="V65" s="13" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5670,7 +5676,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5860,7 +5866,7 @@
         <v>381</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5998,7 +6004,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6148,7 +6154,7 @@
         <v>385</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6286,7 +6292,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6436,7 +6442,7 @@
         <v>387</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6624,7 +6630,7 @@
         <v>381</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6906,7 +6912,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7042,7 +7048,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7352,7 +7358,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7812,7 +7818,7 @@
         <v>388</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8108,7 +8114,7 @@
         <v>385</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8246,7 +8252,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8396,7 +8402,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8578,22 +8584,22 @@
       <c r="V125" s="5"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5" t="s">
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2" t="s">
         <v>356</v>
       </c>
       <c r="K126" s="6" t="s">
@@ -8602,19 +8608,19 @@
       <c r="L126" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="M126" s="5" t="s">
+      <c r="M126" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N126" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5" t="s">
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2" t="s">
         <v>356</v>
       </c>
       <c r="V126" s="6" t="s">
@@ -8740,7 +8746,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8890,7 +8896,7 @@
         <v>391</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9134,7 +9140,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9270,7 +9276,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9414,7 +9420,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9598,7 +9604,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9820,21 +9826,21 @@
       <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
       <c r="J152" s="6" t="s">
         <v>359</v>
       </c>
@@ -9844,18 +9850,18 @@
       <c r="L152" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="M152" s="5" t="s">
+      <c r="M152" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N152" s="5" t="s">
+      <c r="N152" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
       <c r="U152" s="6" t="s">
         <v>419</v>
       </c>
@@ -9982,7 +9988,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10132,7 +10138,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10314,22 +10320,22 @@
       <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5" t="s">
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>361</v>
       </c>
       <c r="K162" s="6" t="s">
@@ -10338,19 +10344,19 @@
       <c r="L162" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="M162" s="5" t="s">
+      <c r="M162" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5" t="s">
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2" t="s">
         <v>361</v>
       </c>
       <c r="V162" s="6" t="s">
@@ -10476,7 +10482,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10628,7 +10634,7 @@
         <v>397</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10774,7 +10780,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11330,7 +11336,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11478,7 +11484,7 @@
         <v>398</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11684,7 +11690,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11834,7 +11840,7 @@
         <v>399</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -11950,23 +11956,23 @@
       <c r="V194" s="5"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
       <c r="J195" s="6" t="s">
         <v>340</v>
       </c>
@@ -11974,20 +11980,20 @@
       <c r="L195" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="M195" s="5" t="s">
+      <c r="M195" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N195" s="5" t="s">
+      <c r="N195" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O195" s="5" t="s">
+      <c r="O195" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
       <c r="U195" s="6" t="s">
         <v>420</v>
       </c>
@@ -12182,7 +12188,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12334,7 +12340,7 @@
         <v>400</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12482,7 +12488,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12686,7 +12692,7 @@
         <v>402</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13082,7 +13088,7 @@
         <v>403</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -13416,7 +13422,7 @@
         <v>404</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -13554,7 +13560,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -13698,7 +13704,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -13836,7 +13842,7 @@
         <v>405</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -13984,7 +13990,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14296,7 +14302,7 @@
         <v>404</v>
       </c>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -14568,7 +14574,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -14718,7 +14724,7 @@
         <v>408</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -14856,7 +14862,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15002,7 +15008,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -15150,7 +15156,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -15286,7 +15292,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -15436,7 +15442,7 @@
         <v>409</v>
       </c>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -15732,7 +15738,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -15936,7 +15942,7 @@
         <v>410</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -16326,7 +16332,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N284" s="2"/>
